--- a/src/test/test-data/WatchlistTestData.xlsx
+++ b/src/test/test-data/WatchlistTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>API</t>
   </si>
@@ -76,27 +76,18 @@
     <t>Add Item to watchlist</t>
   </si>
   <si>
-    <t>TC_T2</t>
-  </si>
-  <si>
     <t>PUT</t>
   </si>
   <si>
     <t>lists/watchlist/</t>
   </si>
   <si>
-    <t>TC_T3</t>
-  </si>
-  <si>
     <t>Delete item from watchlist</t>
   </si>
   <si>
     <t>DELETE</t>
   </si>
   <si>
-    <t>TC_T4</t>
-  </si>
-  <si>
     <t>Search for documents</t>
   </si>
   <si>
@@ -112,10 +103,10 @@
     <t>?query=bio&amp;size=1</t>
   </si>
   <si>
-    <t>TC_T5</t>
-  </si>
-  <si>
     <t>{TC_T1__id}</t>
+  </si>
+  <si>
+    <t>lists/watchlist/{TC_T1__id}</t>
   </si>
 </sst>
 </file>
@@ -506,7 +497,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -572,13 +563,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -586,19 +577,16 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -606,17 +594,15 @@
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="5"/>
       <c r="J3" s="7" t="s">
@@ -629,9 +615,6 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -639,7 +622,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -658,26 +641,23 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I5"/>
       <c r="J5" t="s">
@@ -688,9 +668,6 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -698,7 +675,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>

--- a/src/test/test-data/WatchlistTestData.xlsx
+++ b/src/test/test-data/WatchlistTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>API</t>
   </si>
@@ -28,9 +28,6 @@
     <t>METHOD</t>
   </si>
   <si>
-    <t>TC_T1</t>
-  </si>
-  <si>
     <t>TESTNAME</t>
   </si>
   <si>
@@ -43,76 +40,77 @@
     <t>HEADERS</t>
   </si>
   <si>
-    <t>PATHPARAMS</t>
-  </si>
-  <si>
     <t>QUERYSTRING</t>
   </si>
   <si>
     <t>BODY</t>
   </si>
   <si>
-    <t>DEPENDENCY</t>
-  </si>
-  <si>
     <t>VALIDATIONS</t>
   </si>
   <si>
     <t>STORE</t>
   </si>
   <si>
-    <t>Get Watchlist</t>
+    <t>Search for documents</t>
+  </si>
+  <si>
+    <t>1PSEARCH</t>
+  </si>
+  <si>
+    <t>?query=bio&amp;size=1</t>
+  </si>
+  <si>
+    <t>S1_TC_T1</t>
+  </si>
+  <si>
+    <t>/search</t>
+  </si>
+  <si>
+    <t>DEPENDENCYTESTS</t>
+  </si>
+  <si>
+    <t>hits.hits._id</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>S1_TC_T2</t>
   </si>
   <si>
     <t>1PCITATIONS</t>
   </si>
   <si>
+    <t>Get watchlists</t>
+  </si>
+  <si>
+    <t>/lists/watchlist</t>
+  </si>
+  <si>
     <t>x-1p-user=b58af128-88d7-4a62-85d0-0ff28f49a9c3</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Add Item to watchlist</t>
+    <t>Add new item to watchlist</t>
   </si>
   <si>
     <t>PUT</t>
   </si>
   <si>
-    <t>lists/watchlist/</t>
-  </si>
-  <si>
-    <t>Delete item from watchlist</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>Search for documents</t>
-  </si>
-  <si>
-    <t>1PSEARCH</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>?query=bio&amp;size=1</t>
-  </si>
-  <si>
-    <t>{TC_T1__id}</t>
-  </si>
-  <si>
-    <t>lists/watchlist/{TC_T1__id}</t>
+    <t>S1_TC_T3</t>
+  </si>
+  <si>
+    <t>status=200</t>
+  </si>
+  <si>
+    <t>/lists/watchlist/(S1_TC_T1_hits.hits._id)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -182,7 +180,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -198,7 +196,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -494,38 +491,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="54.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="35.5703125" style="6" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="54.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="6" width="35.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -534,158 +530,115 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="B3" t="s">
+      <c r="K4"/>
+      <c r="L4" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6"/>
-      <c r="M6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/test-data/WatchlistTestData.xlsx
+++ b/src/test/test-data/WatchlistTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t>API</t>
   </si>
@@ -104,6 +104,24 @@
   </si>
   <si>
     <t>/lists/watchlist/(S1_TC_T1_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>S1_TC_T4</t>
+  </si>
+  <si>
+    <t>S1_TC_T5</t>
+  </si>
+  <si>
+    <t>Delete item from watchlist</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>S1_TC_T6</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -491,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -641,6 +659,94 @@
         <v>19</v>
       </c>
     </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/test-data/WatchlistTestData.xlsx
+++ b/src/test/test-data/WatchlistTestData.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="0" yWindow="2580" windowWidth="19635" windowHeight="5385"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Watchlist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>API</t>
   </si>
@@ -119,16 +119,12 @@
   </si>
   <si>
     <t>S1_TC_T6</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -517,18 +513,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="54.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="6" width="35.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="54.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="35.5703125" style="6" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -618,11 +614,7 @@
       <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="G3"/>
       <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
       <c r="L3" t="s">
         <v>19</v>
       </c>
@@ -646,7 +638,6 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
         <v>15</v>
@@ -654,7 +645,6 @@
       <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="K4"/>
       <c r="L4" t="s">
         <v>19</v>
       </c>
@@ -678,11 +668,7 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5"/>
       <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
       <c r="L5" t="s">
         <v>19</v>
       </c>
@@ -706,7 +692,6 @@
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="s">
         <v>27</v>
@@ -714,7 +699,6 @@
       <c r="J6" t="s">
         <v>28</v>
       </c>
-      <c r="K6"/>
       <c r="L6" t="s">
         <v>19</v>
       </c>
@@ -738,11 +722,7 @@
       <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="G7"/>
       <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
       <c r="L7" t="s">
         <v>19</v>
       </c>

--- a/src/test/test-data/WatchlistTestData.xlsx
+++ b/src/test/test-data/WatchlistTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
   <si>
     <t>API</t>
   </si>
@@ -125,6 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -513,18 +514,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="54.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="35.5703125" style="6" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="54.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="6" width="35.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -614,7 +615,11 @@
       <c r="F3" t="s">
         <v>24</v>
       </c>
+      <c r="G3"/>
       <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
       <c r="L3" t="s">
         <v>19</v>
       </c>
@@ -638,6 +643,7 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
+      <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
         <v>15</v>
@@ -645,6 +651,7 @@
       <c r="J4" t="s">
         <v>28</v>
       </c>
+      <c r="K4"/>
       <c r="L4" t="s">
         <v>19</v>
       </c>
@@ -668,7 +675,11 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
+      <c r="G5"/>
       <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
       <c r="L5" t="s">
         <v>19</v>
       </c>
@@ -692,6 +703,7 @@
       <c r="F6" t="s">
         <v>24</v>
       </c>
+      <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="s">
         <v>27</v>
@@ -699,6 +711,7 @@
       <c r="J6" t="s">
         <v>28</v>
       </c>
+      <c r="K6"/>
       <c r="L6" t="s">
         <v>19</v>
       </c>
@@ -722,7 +735,11 @@
       <c r="F7" t="s">
         <v>24</v>
       </c>
+      <c r="G7"/>
       <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
       <c r="L7" t="s">
         <v>19</v>
       </c>

--- a/src/test/test-data/WatchlistTestData.xlsx
+++ b/src/test/test-data/WatchlistTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>API</t>
   </si>
@@ -88,9 +88,6 @@
     <t>/lists/watchlist</t>
   </si>
   <si>
-    <t>x-1p-user=b58af128-88d7-4a62-85d0-0ff28f49a9c3</t>
-  </si>
-  <si>
     <t>Add new item to watchlist</t>
   </si>
   <si>
@@ -119,14 +116,16 @@
   </si>
   <si>
     <t>S1_TC_T6</t>
+  </si>
+  <si>
+    <t>x-1p-user=(SYS_USER1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,13 +140,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -188,17 +180,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -212,8 +199,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,60 +495,60 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="54.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="6" width="35.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -576,7 +562,7 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -586,7 +572,7 @@
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
@@ -613,52 +599,46 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3"/>
+        <v>34</v>
+      </c>
       <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
       <c r="L3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4"/>
+        <v>34</v>
+      </c>
       <c r="H4"/>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4"/>
+        <v>27</v>
+      </c>
       <c r="L4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -673,52 +653,46 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5"/>
+        <v>34</v>
+      </c>
       <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
       <c r="L5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6"/>
+        <v>34</v>
+      </c>
       <c r="H6"/>
       <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6"/>
       <c r="L6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -733,13 +707,9 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7"/>
+        <v>34</v>
+      </c>
       <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
       <c r="L7" t="s">
         <v>19</v>
       </c>

--- a/src/test/test-data/WatchlistTestData.xlsx
+++ b/src/test/test-data/WatchlistTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="19635" windowHeight="5385"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="19440" windowHeight="5385"/>
   </bookViews>
   <sheets>
     <sheet name="Watchlist" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>API</t>
   </si>
@@ -73,58 +73,74 @@
     <t>hits.hits._id</t>
   </si>
   <si>
+    <t>S1_TC_T2</t>
+  </si>
+  <si>
+    <t>1PCITATIONS</t>
+  </si>
+  <si>
+    <t>Get watchlists</t>
+  </si>
+  <si>
+    <t>/lists/watchlist</t>
+  </si>
+  <si>
+    <t>Add new item to watchlist</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>S1_TC_T3</t>
+  </si>
+  <si>
+    <t>status=200</t>
+  </si>
+  <si>
+    <t>/lists/watchlist/(S1_TC_T1_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>S1_TC_T4</t>
+  </si>
+  <si>
+    <t>S1_TC_T5</t>
+  </si>
+  <si>
+    <t>Delete item from watchlist</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>S1_TC_T6</t>
+  </si>
+  <si>
+    <t>x-1p-user=(SYS_USER1)</t>
+  </si>
+  <si>
+    <t>Get users who added  item in ther watchlist</t>
+  </si>
+  <si>
+    <t>?itemId=(S1_TC_T1_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>S1_TC_T7</t>
+  </si>
+  <si>
+    <t>/lists/watchlist/whohas</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>S1_TC_T2</t>
-  </si>
-  <si>
-    <t>1PCITATIONS</t>
-  </si>
-  <si>
-    <t>Get watchlists</t>
-  </si>
-  <si>
-    <t>/lists/watchlist</t>
-  </si>
-  <si>
-    <t>Add new item to watchlist</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>S1_TC_T3</t>
-  </si>
-  <si>
-    <t>status=200</t>
-  </si>
-  <si>
-    <t>/lists/watchlist/(S1_TC_T1_hits.hits._id)</t>
-  </si>
-  <si>
-    <t>S1_TC_T4</t>
-  </si>
-  <si>
-    <t>S1_TC_T5</t>
-  </si>
-  <si>
-    <t>Delete item from watchlist</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>S1_TC_T6</t>
-  </si>
-  <si>
-    <t>x-1p-user=(SYS_USER1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -492,26 +508,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="17.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -579,139 +595,187 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G3"/>
       <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="K4"/>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G5"/>
       <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>35</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
+      <c r="K6"/>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7"/>
-      <c r="L7" t="s">
-        <v>19</v>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/test-data/WatchlistTestData.xlsx
+++ b/src/test/test-data/WatchlistTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>API</t>
   </si>
@@ -118,9 +118,6 @@
     <t>x-1p-user=(SYS_USER1)</t>
   </si>
   <si>
-    <t>Get users who added  item in ther watchlist</t>
-  </si>
-  <si>
     <t>?itemId=(S1_TC_T1_hits.hits._id)</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>/lists/watchlist/whohas</t>
+  </si>
+  <si>
+    <t>Get users who has  item in ther watchlist</t>
   </si>
   <si>
     <t/>
@@ -691,20 +691,20 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
@@ -752,7 +752,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>

--- a/src/test/test-data/WatchlistTestData.xlsx
+++ b/src/test/test-data/WatchlistTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
   <si>
     <t>API</t>
   </si>

--- a/src/test/test-data/WatchlistTestData.xlsx
+++ b/src/test/test-data/WatchlistTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="40">
   <si>
     <t>API</t>
   </si>

--- a/src/test/test-data/WatchlistTestData.xlsx
+++ b/src/test/test-data/WatchlistTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>API</t>
   </si>
@@ -128,19 +128,12 @@
   </si>
   <si>
     <t>Get users who has  item in ther watchlist</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -516,18 +509,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="5" width="17.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -594,9 +587,6 @@
       <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
@@ -617,14 +607,7 @@
       <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="G3"/>
       <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
@@ -645,17 +628,12 @@
       <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
-      </c>
-      <c r="K4"/>
-      <c r="L4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -677,14 +655,7 @@
       <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="G5"/>
       <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
@@ -702,7 +673,6 @@
       <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="F6"/>
       <c r="G6" t="s">
         <v>34</v>
       </c>
@@ -712,10 +682,6 @@
       </c>
       <c r="J6" t="s">
         <v>26</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -737,17 +703,12 @@
       <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
         <v>25</v>
       </c>
       <c r="J7" t="s">
         <v>26</v>
-      </c>
-      <c r="K7"/>
-      <c r="L7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -769,14 +730,7 @@
       <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="G8"/>
       <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8" t="s">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/test-data/WatchlistTestData.xlsx
+++ b/src/test/test-data/WatchlistTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
   <si>
     <t>API</t>
   </si>
@@ -128,12 +128,19 @@
   </si>
   <si>
     <t>Get users who has  item in ther watchlist</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -509,18 +516,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="17.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -587,6 +594,9 @@
       <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
@@ -607,7 +617,14 @@
       <c r="F3" t="s">
         <v>33</v>
       </c>
+      <c r="G3"/>
       <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
@@ -628,12 +645,17 @@
       <c r="F4" t="s">
         <v>33</v>
       </c>
+      <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -655,7 +677,14 @@
       <c r="F5" t="s">
         <v>33</v>
       </c>
+      <c r="G5"/>
       <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
@@ -673,6 +702,7 @@
       <c r="E6" t="s">
         <v>1</v>
       </c>
+      <c r="F6"/>
       <c r="G6" t="s">
         <v>34</v>
       </c>
@@ -682,6 +712,10 @@
       </c>
       <c r="J6" t="s">
         <v>26</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -703,12 +737,17 @@
       <c r="F7" t="s">
         <v>33</v>
       </c>
+      <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
         <v>25</v>
       </c>
       <c r="J7" t="s">
         <v>26</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -730,7 +769,14 @@
       <c r="F8" t="s">
         <v>33</v>
       </c>
+      <c r="G8"/>
       <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/test-data/WatchlistTestData.xlsx
+++ b/src/test/test-data/WatchlistTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>API</t>
   </si>
@@ -52,9 +52,6 @@
     <t>STORE</t>
   </si>
   <si>
-    <t>Search for documents</t>
-  </si>
-  <si>
     <t>1PSEARCH</t>
   </si>
   <si>
@@ -79,15 +76,9 @@
     <t>1PCITATIONS</t>
   </si>
   <si>
-    <t>Get watchlists</t>
-  </si>
-  <si>
     <t>/lists/watchlist</t>
   </si>
   <si>
-    <t>Add new item to watchlist</t>
-  </si>
-  <si>
     <t>PUT</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
     <t>S1_TC_T5</t>
   </si>
   <si>
-    <t>Delete item from watchlist</t>
-  </si>
-  <si>
     <t>DELETE</t>
   </si>
   <si>
@@ -127,20 +115,37 @@
     <t>/lists/watchlist/whohas</t>
   </si>
   <si>
-    <t>Get users who has  item in ther watchlist</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>PASS</t>
+    <t>Verify that to get document for adding into users watchlist</t>
+  </si>
+  <si>
+    <t>Verify that to add new item in to users watch watchlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that to get user watchlist </t>
+  </si>
+  <si>
+    <t>Verify that to get user watchlist and validate user added article should be avilable in his watch list</t>
+  </si>
+  <si>
+    <t>Verify that to get all users watching an article are returned based on article id</t>
+  </si>
+  <si>
+    <t>Verify that user is able to delete a document from watchlist</t>
+  </si>
+  <si>
+    <t>Verify that to get user watchlist and validate user deleted article should not be avilable in his watch list</t>
+  </si>
+  <si>
+    <t>status=200||userId=(SYS_USER1)||items.itemId=(S1_TC_T1_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>status=200||userId=(SYS_USER1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -510,31 +515,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="5" width="17.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -556,9 +561,9 @@
         <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -568,214 +573,186 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="30">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3"/>
+        <v>29</v>
+      </c>
       <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3" t="s">
-        <v>39</v>
+      <c r="J3" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="30">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4"/>
+        <v>29</v>
+      </c>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4"/>
-      <c r="L4" t="s">
-        <v>39</v>
+        <v>14</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" ht="45">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5"/>
+        <v>29</v>
+      </c>
       <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5" t="s">
-        <v>39</v>
+      <c r="J5" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" ht="30">
       <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="F6"/>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" ht="30">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
       <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7"/>
+        <v>29</v>
+      </c>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7"/>
-      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8"/>
+        <v>29</v>
+      </c>
       <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8" t="s">
-        <v>39</v>
+      <c r="J8" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/test-data/WatchlistTestData.xlsx
+++ b/src/test/test-data/WatchlistTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>API</t>
   </si>
@@ -70,9 +70,6 @@
     <t>hits.hits._id</t>
   </si>
   <si>
-    <t>S1_TC_T2</t>
-  </si>
-  <si>
     <t>1PCITATIONS</t>
   </si>
   <si>
@@ -82,64 +79,82 @@
     <t>PUT</t>
   </si>
   <si>
-    <t>S1_TC_T3</t>
-  </si>
-  <si>
     <t>status=200</t>
   </si>
   <si>
-    <t>/lists/watchlist/(S1_TC_T1_hits.hits._id)</t>
-  </si>
-  <si>
-    <t>S1_TC_T4</t>
-  </si>
-  <si>
-    <t>S1_TC_T5</t>
-  </si>
-  <si>
     <t>DELETE</t>
   </si>
   <si>
-    <t>S1_TC_T6</t>
-  </si>
-  <si>
     <t>x-1p-user=(SYS_USER1)</t>
   </si>
   <si>
-    <t>?itemId=(S1_TC_T1_hits.hits._id)</t>
-  </si>
-  <si>
-    <t>S1_TC_T7</t>
-  </si>
-  <si>
     <t>/lists/watchlist/whohas</t>
   </si>
   <si>
     <t>Verify that to get document for adding into users watchlist</t>
   </si>
   <si>
-    <t>Verify that to add new item in to users watch watchlist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that to get user watchlist </t>
-  </si>
-  <si>
-    <t>Verify that to get user watchlist and validate user added article should be avilable in his watch list</t>
-  </si>
-  <si>
-    <t>Verify that to get all users watching an article are returned based on article id</t>
-  </si>
-  <si>
     <t>Verify that user is able to delete a document from watchlist</t>
   </si>
   <si>
-    <t>Verify that to get user watchlist and validate user deleted article should not be avilable in his watch list</t>
-  </si>
-  <si>
-    <t>status=200||userId=(SYS_USER1)||items.itemId=(S1_TC_T1_hits.hits._id)</t>
-  </si>
-  <si>
     <t>status=200||userId=(SYS_USER1)</t>
+  </si>
+  <si>
+    <t>Verify that all users watching an article are returned based on article id</t>
+  </si>
+  <si>
+    <t>OPQA-272</t>
+  </si>
+  <si>
+    <t>OPQA-260</t>
+  </si>
+  <si>
+    <t>/lists/watchlist/wos::(S1_TC_T1_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add a document to watchlist from document page</t>
+  </si>
+  <si>
+    <t>OPQA-259</t>
+  </si>
+  <si>
+    <t>Verify that for the given user id, watchlist is returned</t>
+  </si>
+  <si>
+    <t>OPQA-858</t>
+  </si>
+  <si>
+    <t>Verify that document count gets decreased in the watchlist page when a document is deleted from watchlist</t>
+  </si>
+  <si>
+    <t>OPQA-265</t>
+  </si>
+  <si>
+    <t>OPQA-863</t>
+  </si>
+  <si>
+    <t>Verify that document count gets increased in the watchlist page when a document is added to watchlist</t>
+  </si>
+  <si>
+    <t>Verify that for the given user id and wos id, ismemeber api returned status</t>
+  </si>
+  <si>
+    <t>?id=wos::(S1_TC_T1_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>?itemId=wos::(S1_TC_T1_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>status=200||present=true||itemId=wos::(S1_TC_T1_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>OPQA-866</t>
+  </si>
+  <si>
+    <t>/lists/watchlist/ismember</t>
+  </si>
+  <si>
+    <t>status=200||userId=(SYS_USER1)||items.itemId=wos::(S1_TC_T1_hits.hits._id)</t>
   </si>
 </sst>
 </file>
@@ -513,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L2:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -578,7 +593,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -596,163 +611,190 @@
       <c r="H2" s="4"/>
       <c r="I2" s="1"/>
       <c r="J2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="30">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H3"/>
       <c r="J3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H5"/>
       <c r="J5" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7"/>
+      <c r="J7" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>41</v>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="9" spans="1:12" ht="45">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="45">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8"/>
-      <c r="J8" s="5" t="s">
-        <v>23</v>
+      <c r="H9"/>
+      <c r="J9" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/test-data/WatchlistTestData.xlsx
+++ b/src/test/test-data/WatchlistTestData.xlsx
@@ -52,9 +52,6 @@
     <t>STORE</t>
   </si>
   <si>
-    <t>1PSEARCH</t>
-  </si>
-  <si>
     <t>?query=bio&amp;size=1</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>status=200||userId=(SYS_USER1)||items.itemId=wos::(S1_TC_T1_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>1PSEARCHV3</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>10</v>
@@ -590,211 +590,211 @@
     </row>
     <row r="2" spans="1:12" ht="30">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="1"/>
       <c r="J2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3"/>
       <c r="J3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5"/>
       <c r="J5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="45">
       <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>44</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7"/>
       <c r="J7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
       <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
         <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="45">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9"/>
       <c r="J9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
